--- a/output/1Y_P87_KFSDIV.xlsx
+++ b/output/1Y_P87_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D3" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="F3" s="1">
-        <v>1003.2606</v>
+        <v>1001.2516</v>
       </c>
       <c r="H3" s="1">
-        <v>10083.8678</v>
+        <v>10043.617</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10083.8678</v>
+        <v>10043.617</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.008399999999999999</v>
+        <v>0.0044</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>10.4908</v>
       </c>
       <c r="C4" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D4" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E4" s="1">
-        <v>2014.9353</v>
+        <v>2010.9038</v>
       </c>
       <c r="F4" s="1">
-        <v>953.2162</v>
+        <v>951.3119</v>
       </c>
       <c r="H4" s="1">
-        <v>21138.2835</v>
+        <v>21053.761</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21138.2835</v>
+        <v>21053.761</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>9.9259</v>
+        <v>9.9458</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0525</v>
+        <v>0.0504</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>10.6308</v>
       </c>
       <c r="C5" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D5" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E5" s="1">
-        <v>2968.1515</v>
+        <v>2962.2157</v>
       </c>
       <c r="F5" s="1">
-        <v>940.663</v>
+        <v>938.782</v>
       </c>
       <c r="H5" s="1">
-        <v>31553.8247</v>
+        <v>31427.6275</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>31553.8247</v>
+        <v>31427.6275</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.1073</v>
+        <v>10.1276</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0133</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>10.3176</v>
       </c>
       <c r="C6" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D6" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E6" s="1">
-        <v>3908.8145</v>
+        <v>3900.9977</v>
       </c>
       <c r="F6" s="1">
-        <v>969.2175999999999</v>
+        <v>967.277</v>
       </c>
       <c r="H6" s="1">
-        <v>40329.584</v>
+        <v>40168.5736</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>40329.584</v>
+        <v>40168.5736</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.2333</v>
+        <v>10.2538</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0295</v>
+        <v>-0.0304</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>10.2392</v>
       </c>
       <c r="C7" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D7" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E7" s="1">
-        <v>4878.0321</v>
+        <v>4868.2747</v>
       </c>
       <c r="F7" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="H7" s="1">
-        <v>49947.1463</v>
+        <v>49747.4391</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>49947.1463</v>
+        <v>49747.4391</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.25</v>
+        <v>10.2706</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1010,7 +1010,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0076</v>
+        <v>-0.008399999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,46 +1021,46 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D8" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>5854.6709</v>
+        <v>5842.9621</v>
       </c>
       <c r="F8" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="H8" s="1">
-        <v>58423.1755</v>
+        <v>58190.0597</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>58423.1755</v>
+        <v>58190.0597</v>
       </c>
       <c r="K8" s="1">
         <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>10.2482</v>
+        <v>10.2688</v>
       </c>
       <c r="M8" s="1">
         <v>0.25</v>
       </c>
       <c r="N8" s="1">
-        <v>1097.5572</v>
+        <v>1095.3618</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8902.442800000001</v>
+        <v>-8904.638199999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0254</v>
+        <v>-0.0261</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>10.1873</v>
       </c>
       <c r="C9" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D9" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E9" s="1">
-        <v>6856.7753</v>
+        <v>6843.0621</v>
       </c>
       <c r="F9" s="1">
-        <v>1003.1619</v>
+        <v>1001.1141</v>
       </c>
       <c r="H9" s="1">
-        <v>69852.0272</v>
+        <v>69572.7283</v>
       </c>
       <c r="I9" s="1">
-        <v>1097.5572</v>
+        <v>1095.3618</v>
       </c>
       <c r="J9" s="1">
-        <v>70949.58440000001</v>
+        <v>70668.0901</v>
       </c>
       <c r="K9" s="1">
         <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>10.2089</v>
+        <v>10.2293</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10219.5114</v>
+        <v>-10219.0724</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0369</v>
+        <v>0.0363</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>10.4058</v>
       </c>
       <c r="C10" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D10" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E10" s="1">
-        <v>7859.9372</v>
+        <v>7844.1762</v>
       </c>
       <c r="F10" s="1">
-        <v>982.0976000000001</v>
+        <v>980.0869</v>
       </c>
       <c r="H10" s="1">
-        <v>81788.935</v>
+        <v>81461.77</v>
       </c>
       <c r="I10" s="1">
-        <v>878.0458</v>
+        <v>876.2895</v>
       </c>
       <c r="J10" s="1">
-        <v>82666.9807</v>
+        <v>82338.0595</v>
       </c>
       <c r="K10" s="1">
-        <v>80219.5114</v>
+        <v>80219.0724</v>
       </c>
       <c r="L10" s="1">
-        <v>10.2061</v>
+        <v>10.2266</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10219.5114</v>
+        <v>-10219.0724</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0212</v>
+        <v>0.0207</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,46 +1171,46 @@
         <v>10.2688</v>
       </c>
       <c r="C11" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D11" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E11" s="1">
-        <v>8842.034900000001</v>
+        <v>8824.2631</v>
       </c>
       <c r="F11" s="1">
-        <v>995.2002</v>
+        <v>993.165</v>
       </c>
       <c r="H11" s="1">
-        <v>90797.0876</v>
+        <v>90433.696</v>
       </c>
       <c r="I11" s="1">
-        <v>658.5343</v>
+        <v>657.2171</v>
       </c>
       <c r="J11" s="1">
-        <v>91455.622</v>
+        <v>91090.91310000001</v>
       </c>
       <c r="K11" s="1">
-        <v>90439.0229</v>
+        <v>90438.1447</v>
       </c>
       <c r="L11" s="1">
-        <v>10.2283</v>
+        <v>10.2488</v>
       </c>
       <c r="M11" s="1">
         <v>0.1</v>
       </c>
       <c r="N11" s="1">
-        <v>707.3944</v>
+        <v>705.9759</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9512.117099999999</v>
+        <v>-9513.0965</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0131</v>
+        <v>-0.0135</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>10.4938</v>
       </c>
       <c r="C12" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D12" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E12" s="1">
-        <v>9837.235000000001</v>
+        <v>9817.4282</v>
       </c>
       <c r="F12" s="1">
-        <v>1007.5672</v>
+        <v>1005.4457</v>
       </c>
       <c r="H12" s="1">
-        <v>103229.9769</v>
+        <v>102815.9619</v>
       </c>
       <c r="I12" s="1">
-        <v>1146.4172</v>
+        <v>1144.1206</v>
       </c>
       <c r="J12" s="1">
-        <v>104376.3942</v>
+        <v>103960.0825</v>
       </c>
       <c r="K12" s="1">
-        <v>100658.5343</v>
+        <v>100657.2171</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2324</v>
+        <v>10.2529</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10573.2086</v>
+        <v>-10572.0603</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0288</v>
+        <v>0.0284</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>10.5481</v>
       </c>
       <c r="C13" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D13" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E13" s="1">
-        <v>10844.8022</v>
+        <v>10822.8739</v>
       </c>
       <c r="F13" s="1">
-        <v>1002.3804</v>
+        <v>1000.2706</v>
       </c>
       <c r="H13" s="1">
-        <v>114392.0583</v>
+        <v>113932.3932</v>
       </c>
       <c r="I13" s="1">
-        <v>573.2086</v>
+        <v>572.0603</v>
       </c>
       <c r="J13" s="1">
-        <v>114965.267</v>
+        <v>114504.4535</v>
       </c>
       <c r="K13" s="1">
-        <v>111231.743</v>
+        <v>111229.2774</v>
       </c>
       <c r="L13" s="1">
-        <v>10.2567</v>
+        <v>10.2772</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-10573.2086</v>
+        <v>-10572.0603</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0051</v>
+        <v>0.0048</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,46 +1321,46 @@
         <v>10.3262</v>
       </c>
       <c r="C14" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D14" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E14" s="1">
-        <v>11847.1826</v>
+        <v>11823.1445</v>
       </c>
       <c r="F14" s="1">
-        <v>-11847.1826</v>
+        <v>-11823.1445</v>
       </c>
       <c r="H14" s="1">
-        <v>122336.3771</v>
+        <v>121843.4156</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>122336.3771</v>
+        <v>121843.4156</v>
       </c>
       <c r="K14" s="1">
-        <v>121804.9516</v>
+        <v>121801.3377</v>
       </c>
       <c r="L14" s="1">
-        <v>10.2813</v>
+        <v>10.3019</v>
       </c>
       <c r="M14" s="1">
         <v>0.25</v>
       </c>
       <c r="N14" s="1">
-        <v>2440.0805</v>
+        <v>2435.1466</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124776.4576</v>
+        <v>124278.5622</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.021</v>
+        <v>-0.0214</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D3" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="F3" s="1">
-        <v>994.8465</v>
+        <v>1000.8829</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10083.8678</v>
+        <v>10043.617</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10083.8678</v>
+        <v>10043.617</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9916.1322</v>
+        <v>-9996.318300000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.008399999999999999</v>
+        <v>0.0044</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>10.4908</v>
       </c>
       <c r="C4" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D4" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E4" s="1">
-        <v>2006.5212</v>
+        <v>2010.5352</v>
       </c>
       <c r="F4" s="1">
-        <v>853.1273</v>
+        <v>854.849</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>21050.0125</v>
+        <v>21049.9015</v>
       </c>
       <c r="I4" s="1">
-        <v>83.8678</v>
+        <v>3.6817</v>
       </c>
       <c r="J4" s="1">
-        <v>21133.8804</v>
+        <v>21053.5832</v>
       </c>
       <c r="K4" s="1">
-        <v>19916.1322</v>
+        <v>19996.3183</v>
       </c>
       <c r="L4" s="1">
-        <v>9.925700000000001</v>
+        <v>9.9458</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8949.987499999999</v>
+        <v>-8986.002200000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0523</v>
+        <v>0.0504</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>10.6308</v>
       </c>
       <c r="C5" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D5" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E5" s="1">
-        <v>2859.6485</v>
+        <v>2865.3842</v>
       </c>
       <c r="F5" s="1">
-        <v>903.0035</v>
+        <v>904.8217</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>30400.3508</v>
+        <v>30400.2942</v>
       </c>
       <c r="I5" s="1">
-        <v>1133.8804</v>
+        <v>1017.6796</v>
       </c>
       <c r="J5" s="1">
-        <v>31534.2312</v>
+        <v>31417.9738</v>
       </c>
       <c r="K5" s="1">
-        <v>28866.1196</v>
+        <v>28982.3204</v>
       </c>
       <c r="L5" s="1">
-        <v>10.0943</v>
+        <v>10.1146</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9599.6492</v>
+        <v>-9638.251200000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0129</v>
+        <v>0.0117</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>10.3176</v>
       </c>
       <c r="C6" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D6" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E6" s="1">
-        <v>3762.6519</v>
+        <v>3770.2059</v>
       </c>
       <c r="F6" s="1">
-        <v>1083.4363</v>
+        <v>1085.5773</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>38821.5374</v>
+        <v>38821.8106</v>
       </c>
       <c r="I6" s="1">
-        <v>1534.2312</v>
+        <v>1379.4283</v>
       </c>
       <c r="J6" s="1">
-        <v>40355.7686</v>
+        <v>40201.239</v>
       </c>
       <c r="K6" s="1">
-        <v>38465.7688</v>
+        <v>38620.5717</v>
       </c>
       <c r="L6" s="1">
-        <v>10.223</v>
+        <v>10.2436</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-11178.4626</v>
+        <v>-11223.0237</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0284</v>
+        <v>-0.0294</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>10.2392</v>
       </c>
       <c r="C7" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D7" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E7" s="1">
-        <v>4846.0882</v>
+        <v>4855.7832</v>
       </c>
       <c r="F7" s="1">
-        <v>1011.3845</v>
+        <v>989.9319</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>49620.0667</v>
+        <v>49619.7922</v>
       </c>
       <c r="I7" s="1">
-        <v>355.7686</v>
+        <v>156.4046</v>
       </c>
       <c r="J7" s="1">
-        <v>49975.8353</v>
+        <v>49776.1968</v>
       </c>
       <c r="K7" s="1">
-        <v>49644.2314</v>
+        <v>49843.5954</v>
       </c>
       <c r="L7" s="1">
-        <v>10.2442</v>
+        <v>10.2648</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10355.7686</v>
+        <v>-10156.4046</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0075</v>
+        <v>-0.008500000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,49 +1768,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D8" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>5857.4728</v>
+        <v>5845.7152</v>
       </c>
       <c r="F8" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>58451.1351</v>
+        <v>58217.4774</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>58451.1351</v>
+        <v>58217.4774</v>
       </c>
       <c r="K8" s="1">
         <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>10.2433</v>
+        <v>10.2639</v>
       </c>
       <c r="M8" s="1">
         <v>0.25</v>
       </c>
       <c r="N8" s="1">
-        <v>1090.3699</v>
+        <v>1092.5512</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8909.6301</v>
+        <v>-8907.4488</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0254</v>
+        <v>-0.0261</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>10.1873</v>
       </c>
       <c r="C9" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D9" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E9" s="1">
-        <v>6859.5772</v>
+        <v>6845.8152</v>
       </c>
       <c r="F9" s="1">
-        <v>993.3377</v>
+        <v>1022.8567</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>69880.5708</v>
+        <v>69600.7184</v>
       </c>
       <c r="I9" s="1">
-        <v>1090.3699</v>
+        <v>1092.5512</v>
       </c>
       <c r="J9" s="1">
-        <v>70970.9406</v>
+        <v>70693.2696</v>
       </c>
       <c r="K9" s="1">
         <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>10.2047</v>
+        <v>10.2252</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10119.4292</v>
+        <v>-10441.0142</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0368</v>
+        <v>0.0363</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>10.4058</v>
       </c>
       <c r="C10" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D10" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E10" s="1">
-        <v>7852.9149</v>
+        <v>7868.6719</v>
       </c>
       <c r="F10" s="1">
-        <v>796.1078</v>
+        <v>797.6738</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>81715.8619</v>
+        <v>81716.15730000001</v>
       </c>
       <c r="I10" s="1">
-        <v>970.9406</v>
+        <v>651.537</v>
       </c>
       <c r="J10" s="1">
-        <v>82686.80250000001</v>
+        <v>82367.69439999999</v>
       </c>
       <c r="K10" s="1">
-        <v>80119.4292</v>
+        <v>80441.01420000001</v>
       </c>
       <c r="L10" s="1">
-        <v>10.2025</v>
+        <v>10.2229</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8284.1381</v>
+        <v>-8317.1057</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0212</v>
+        <v>0.0208</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,49 +1927,49 @@
         <v>10.2688</v>
       </c>
       <c r="C11" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D11" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E11" s="1">
-        <v>8649.0227</v>
+        <v>8666.3457</v>
       </c>
       <c r="F11" s="1">
-        <v>1089.2136</v>
+        <v>1091.3702</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>88815.0839</v>
+        <v>88815.31050000001</v>
       </c>
       <c r="I11" s="1">
-        <v>2686.8025</v>
+        <v>2334.4314</v>
       </c>
       <c r="J11" s="1">
-        <v>91501.8864</v>
+        <v>91149.74189999999</v>
       </c>
       <c r="K11" s="1">
-        <v>88403.5673</v>
+        <v>88758.11990000001</v>
       </c>
       <c r="L11" s="1">
-        <v>10.2212</v>
+        <v>10.2417</v>
       </c>
       <c r="M11" s="1">
         <v>0.1</v>
       </c>
       <c r="N11" s="1">
-        <v>706.7623</v>
+        <v>708.1805000000001</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10478.1538</v>
+        <v>-10521.3643</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0128</v>
+        <v>-0.0132</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>10.4938</v>
       </c>
       <c r="C12" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D12" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E12" s="1">
-        <v>9738.236199999999</v>
+        <v>9757.715899999999</v>
       </c>
       <c r="F12" s="1">
-        <v>744.1439</v>
+        <v>745.6834</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>102191.1031</v>
+        <v>102190.6072</v>
       </c>
       <c r="I12" s="1">
-        <v>2208.6488</v>
+        <v>1813.0671</v>
       </c>
       <c r="J12" s="1">
-        <v>104399.7519</v>
+        <v>104003.6743</v>
       </c>
       <c r="K12" s="1">
-        <v>99588.4834</v>
+        <v>99987.6646</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2265</v>
+        <v>10.247</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7808.8969</v>
+        <v>-7840.7115</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0285</v>
+        <v>0.0282</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>10.5481</v>
       </c>
       <c r="C13" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D13" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E13" s="1">
-        <v>10482.3801</v>
+        <v>10503.3993</v>
       </c>
       <c r="F13" s="1">
-        <v>894.0764</v>
+        <v>895.8598</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>110569.1932</v>
+        <v>110569.2842</v>
       </c>
       <c r="I13" s="1">
-        <v>4399.7519</v>
+        <v>3972.3556</v>
       </c>
       <c r="J13" s="1">
-        <v>114968.9452</v>
+        <v>114541.6398</v>
       </c>
       <c r="K13" s="1">
-        <v>107397.3803</v>
+        <v>107828.3761</v>
       </c>
       <c r="L13" s="1">
-        <v>10.2455</v>
+        <v>10.266</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-9430.8068</v>
+        <v>-9468.521000000001</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.005</v>
+        <v>0.0047</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,49 +2086,49 @@
         <v>10.3262</v>
       </c>
       <c r="C14" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D14" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E14" s="1">
-        <v>11376.4564</v>
+        <v>11399.259</v>
       </c>
       <c r="F14" s="1">
-        <v>-11376.4564</v>
+        <v>-11399.259</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>117475.5643</v>
+        <v>117475.0641</v>
       </c>
       <c r="I14" s="1">
-        <v>4968.9452</v>
+        <v>4503.8345</v>
       </c>
       <c r="J14" s="1">
-        <v>122444.5095</v>
+        <v>121978.8987</v>
       </c>
       <c r="K14" s="1">
-        <v>116828.187</v>
+        <v>117296.8972</v>
       </c>
       <c r="L14" s="1">
-        <v>10.2693</v>
+        <v>10.2899</v>
       </c>
       <c r="M14" s="1">
         <v>0.25</v>
       </c>
       <c r="N14" s="1">
-        <v>2358.5355</v>
+        <v>2363.2648</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>119834.0998</v>
+        <v>119838.329</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0202</v>
+        <v>-0.0206</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D3" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="F3" s="1">
-        <v>999.8628</v>
+        <v>1001.2516</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10083.8678</v>
+        <v>10043.617</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10083.8678</v>
+        <v>10043.617</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9966.1322</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.008399999999999999</v>
+        <v>0.0044</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>10.4908</v>
       </c>
       <c r="C4" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D4" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E4" s="1">
-        <v>2011.5375</v>
+        <v>2010.9038</v>
       </c>
       <c r="F4" s="1">
-        <v>862.433</v>
+        <v>868.8312</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>21102.6376</v>
+        <v>21053.761</v>
       </c>
       <c r="I4" s="1">
-        <v>33.8678</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21136.5054</v>
+        <v>21053.761</v>
       </c>
       <c r="K4" s="1">
-        <v>19966.1322</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>9.925800000000001</v>
+        <v>9.9458</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9047.6124</v>
+        <v>-9132.9799</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0524</v>
+        <v>0.0504</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>10.6308</v>
       </c>
       <c r="C5" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D5" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E5" s="1">
-        <v>2873.9705</v>
+        <v>2879.735</v>
       </c>
       <c r="F5" s="1">
-        <v>916.9955</v>
+        <v>918.8418</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>30552.6059</v>
+        <v>30552.549</v>
       </c>
       <c r="I5" s="1">
-        <v>986.2554</v>
+        <v>867.0201</v>
       </c>
       <c r="J5" s="1">
-        <v>31538.8613</v>
+        <v>31419.5691</v>
       </c>
       <c r="K5" s="1">
-        <v>29013.7446</v>
+        <v>29132.9799</v>
       </c>
       <c r="L5" s="1">
-        <v>10.0954</v>
+        <v>10.1165</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9748.395399999999</v>
+        <v>-9787.5949</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0129</v>
+        <v>0.0118</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>10.3176</v>
       </c>
       <c r="C6" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D6" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E6" s="1">
-        <v>3790.966</v>
+        <v>3798.5769</v>
       </c>
       <c r="F6" s="1">
-        <v>1089.1932</v>
+        <v>1071.6873</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>39113.6707</v>
+        <v>39113.946</v>
       </c>
       <c r="I6" s="1">
-        <v>1237.86</v>
+        <v>1079.4252</v>
       </c>
       <c r="J6" s="1">
-        <v>40351.5307</v>
+        <v>40193.3712</v>
       </c>
       <c r="K6" s="1">
-        <v>38762.14</v>
+        <v>38920.5748</v>
       </c>
       <c r="L6" s="1">
-        <v>10.2249</v>
+        <v>10.2461</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-11237.86</v>
+        <v>-11079.4252</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0286</v>
+        <v>-0.0296</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>10.2392</v>
       </c>
       <c r="C7" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D7" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E7" s="1">
-        <v>4880.1592</v>
+        <v>4870.2642</v>
       </c>
       <c r="F7" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>49968.9262</v>
+        <v>49767.7688</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>49968.9262</v>
+        <v>49767.7688</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.2456</v>
+        <v>10.2664</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2525,7 +2525,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0076</v>
+        <v>-0.008500000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,49 +2536,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D8" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>5856.798</v>
+        <v>5844.9516</v>
       </c>
       <c r="F8" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>58444.4017</v>
+        <v>58209.8727</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>58444.4017</v>
+        <v>58209.8727</v>
       </c>
       <c r="K8" s="1">
         <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>10.2445</v>
+        <v>10.2653</v>
       </c>
       <c r="M8" s="1">
         <v>0.25</v>
       </c>
       <c r="N8" s="1">
-        <v>1098.0358</v>
+        <v>1095.8094</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8901.9642</v>
+        <v>-8904.1906</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0254</v>
+        <v>-0.0261</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>10.1873</v>
       </c>
       <c r="C9" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D9" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E9" s="1">
-        <v>6858.9024</v>
+        <v>6845.0516</v>
       </c>
       <c r="F9" s="1">
-        <v>1089.3991</v>
+        <v>1087.0039</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>69873.69680000001</v>
+        <v>69592.9549</v>
       </c>
       <c r="I9" s="1">
-        <v>1098.0358</v>
+        <v>1095.8094</v>
       </c>
       <c r="J9" s="1">
-        <v>70971.7326</v>
+        <v>70688.7644</v>
       </c>
       <c r="K9" s="1">
         <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>10.2057</v>
+        <v>10.2264</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11098.0358</v>
+        <v>-11095.8094</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0369</v>
+        <v>0.0363</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>10.4058</v>
       </c>
       <c r="C10" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D10" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E10" s="1">
-        <v>7948.3016</v>
+        <v>7932.0555</v>
       </c>
       <c r="F10" s="1">
-        <v>875.7349</v>
+        <v>909.6545</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>82708.4365</v>
+        <v>82374.3959</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>82708.4365</v>
+        <v>82374.3959</v>
       </c>
       <c r="K10" s="1">
-        <v>81098.0358</v>
+        <v>81095.8094</v>
       </c>
       <c r="L10" s="1">
-        <v>10.2032</v>
+        <v>10.2238</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9112.721799999999</v>
+        <v>-9484.695</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0214</v>
+        <v>0.0209</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,49 +2695,49 @@
         <v>10.2688</v>
       </c>
       <c r="C11" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D11" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E11" s="1">
-        <v>8824.036400000001</v>
+        <v>8841.709999999999</v>
       </c>
       <c r="F11" s="1">
-        <v>1060.2289</v>
+        <v>1021.9551</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>90612.2653</v>
+        <v>90612.49649999999</v>
       </c>
       <c r="I11" s="1">
-        <v>887.2782</v>
+        <v>515.3049999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>91499.5435</v>
+        <v>91127.8015</v>
       </c>
       <c r="K11" s="1">
-        <v>90210.7576</v>
+        <v>90580.50440000001</v>
       </c>
       <c r="L11" s="1">
-        <v>10.2233</v>
+        <v>10.2447</v>
       </c>
       <c r="M11" s="1">
         <v>0.1</v>
       </c>
       <c r="N11" s="1">
-        <v>715.3471</v>
+        <v>713.885</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10171.9311</v>
+        <v>-9801.42</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.013</v>
+        <v>-0.0135</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>10.4938</v>
       </c>
       <c r="C12" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D12" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E12" s="1">
-        <v>9884.265299999999</v>
+        <v>9863.6651</v>
       </c>
       <c r="F12" s="1">
-        <v>864.1448</v>
+        <v>906.2976</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>103723.5032</v>
+        <v>103300.192</v>
       </c>
       <c r="I12" s="1">
-        <v>715.3471</v>
+        <v>713.885</v>
       </c>
       <c r="J12" s="1">
-        <v>104438.8503</v>
+        <v>104014.077</v>
       </c>
       <c r="K12" s="1">
-        <v>101098.0358</v>
+        <v>101095.8094</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2282</v>
+        <v>10.2493</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-9068.162200000001</v>
+        <v>-9529.537899999999</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.029</v>
+        <v>0.0285</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>10.5481</v>
       </c>
       <c r="C13" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D13" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E13" s="1">
-        <v>10748.4101</v>
+        <v>10769.9627</v>
       </c>
       <c r="F13" s="1">
-        <v>946.1723</v>
+        <v>948.0599</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>113375.3041</v>
+        <v>113375.3974</v>
       </c>
       <c r="I13" s="1">
-        <v>1647.1849</v>
+        <v>1184.3471</v>
       </c>
       <c r="J13" s="1">
-        <v>115022.489</v>
+        <v>114559.7445</v>
       </c>
       <c r="K13" s="1">
-        <v>110166.198</v>
+        <v>110625.3473</v>
       </c>
       <c r="L13" s="1">
-        <v>10.2495</v>
+        <v>10.2717</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-9980.3197</v>
+        <v>-10020.2345</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0051</v>
+        <v>0.0048</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,49 +2854,49 @@
         <v>10.3262</v>
       </c>
       <c r="C14" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D14" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E14" s="1">
-        <v>11694.5823</v>
+        <v>11718.0226</v>
       </c>
       <c r="F14" s="1">
-        <v>-11694.5823</v>
+        <v>-11718.0226</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>120760.5959</v>
+        <v>120760.0817</v>
       </c>
       <c r="I14" s="1">
-        <v>1666.8653</v>
+        <v>1164.1126</v>
       </c>
       <c r="J14" s="1">
-        <v>122427.4612</v>
+        <v>121924.1943</v>
       </c>
       <c r="K14" s="1">
-        <v>120146.5177</v>
+        <v>120645.5818</v>
       </c>
       <c r="L14" s="1">
-        <v>10.2737</v>
+        <v>10.2957</v>
       </c>
       <c r="M14" s="1">
         <v>0.25</v>
       </c>
       <c r="N14" s="1">
-        <v>2418.3923</v>
+        <v>2423.2416</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>123178.9882</v>
+        <v>123183.3233</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0208</v>
+        <v>-0.0212</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D3" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="F3" s="1">
-        <v>1003.2606</v>
+        <v>1001.2516</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10083.8678</v>
+        <v>10043.617</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10083.8678</v>
+        <v>10043.617</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.008399999999999999</v>
+        <v>0.0044</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>10.4908</v>
       </c>
       <c r="C4" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D4" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E4" s="1">
-        <v>2014.9353</v>
+        <v>2010.9038</v>
       </c>
       <c r="F4" s="1">
-        <v>873.4049</v>
+        <v>883.2298</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>21138.2835</v>
+        <v>21053.761</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21138.2835</v>
+        <v>21053.761</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>9.9259</v>
+        <v>9.9458</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9162.7165</v>
+        <v>-9284.3346</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0525</v>
+        <v>0.0504</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>10.6308</v>
       </c>
       <c r="C5" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D5" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E5" s="1">
-        <v>2888.3403</v>
+        <v>2894.1336</v>
       </c>
       <c r="F5" s="1">
-        <v>931.1286</v>
+        <v>933.0034000000001</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>30705.3676</v>
+        <v>30705.3105</v>
       </c>
       <c r="I5" s="1">
-        <v>837.2835</v>
+        <v>715.6654</v>
       </c>
       <c r="J5" s="1">
-        <v>31542.6511</v>
+        <v>31420.9758</v>
       </c>
       <c r="K5" s="1">
-        <v>29162.7165</v>
+        <v>29284.3346</v>
       </c>
       <c r="L5" s="1">
-        <v>10.0967</v>
+        <v>10.1185</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9898.642400000001</v>
+        <v>-9938.4455</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.013</v>
+        <v>0.0118</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>10.3176</v>
       </c>
       <c r="C6" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D6" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E6" s="1">
-        <v>3819.4689</v>
+        <v>3827.137</v>
       </c>
       <c r="F6" s="1">
-        <v>1060.1924</v>
+        <v>1042.4557</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>39407.7523</v>
+        <v>39408.0297</v>
       </c>
       <c r="I6" s="1">
-        <v>938.6411000000001</v>
+        <v>777.2199000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>40346.3935</v>
+        <v>40185.2496</v>
       </c>
       <c r="K6" s="1">
-        <v>39061.3589</v>
+        <v>39222.7801</v>
       </c>
       <c r="L6" s="1">
-        <v>10.2269</v>
+        <v>10.2486</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10938.6411</v>
+        <v>-10777.2199</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0288</v>
+        <v>-0.0298</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>10.2392</v>
       </c>
       <c r="C7" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D7" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E7" s="1">
-        <v>4879.6613</v>
+        <v>4869.5927</v>
       </c>
       <c r="F7" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>49963.828</v>
+        <v>49760.9071</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>49963.828</v>
+        <v>49760.9071</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.2466</v>
+        <v>10.2678</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0076</v>
+        <v>-0.008500000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,49 +3304,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D8" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>5856.3001</v>
+        <v>5844.2801</v>
       </c>
       <c r="F8" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>58439.4331</v>
+        <v>58203.1853</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>58439.4331</v>
+        <v>58203.1853</v>
       </c>
       <c r="K8" s="1">
         <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>10.2454</v>
+        <v>10.2664</v>
       </c>
       <c r="M8" s="1">
         <v>0.25</v>
       </c>
       <c r="N8" s="1">
-        <v>1097.9238</v>
+        <v>1095.6584</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8902.0762</v>
+        <v>-8904.3416</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0254</v>
+        <v>-0.0261</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>10.1873</v>
       </c>
       <c r="C9" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D9" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E9" s="1">
-        <v>6858.4045</v>
+        <v>6844.3801</v>
       </c>
       <c r="F9" s="1">
-        <v>1089.3881</v>
+        <v>1086.9891</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>69868.6244</v>
+        <v>69586.128</v>
       </c>
       <c r="I9" s="1">
-        <v>1097.9238</v>
+        <v>1095.6584</v>
       </c>
       <c r="J9" s="1">
-        <v>70966.5482</v>
+        <v>70681.78630000001</v>
       </c>
       <c r="K9" s="1">
         <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>10.2065</v>
+        <v>10.2274</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11097.9238</v>
+        <v>-11095.6584</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0369</v>
+        <v>0.0363</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>10.4058</v>
       </c>
       <c r="C10" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D10" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E10" s="1">
-        <v>7947.7927</v>
+        <v>7931.3692</v>
       </c>
       <c r="F10" s="1">
-        <v>961.0025000000001</v>
+        <v>959.0762</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>82703.1409</v>
+        <v>82367.26880000001</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>82703.1409</v>
+        <v>82367.26880000001</v>
       </c>
       <c r="K10" s="1">
-        <v>81097.9238</v>
+        <v>81095.6584</v>
       </c>
       <c r="L10" s="1">
-        <v>10.2038</v>
+        <v>10.2247</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3452,7 +3452,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0214</v>
+        <v>0.0209</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,49 +3463,49 @@
         <v>10.2688</v>
       </c>
       <c r="C11" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D11" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E11" s="1">
-        <v>8908.7952</v>
+        <v>8890.445400000001</v>
       </c>
       <c r="F11" s="1">
-        <v>973.8236000000001</v>
+        <v>971.874</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>91482.63589999999</v>
+        <v>91111.95140000001</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>91482.63589999999</v>
+        <v>91111.95140000001</v>
       </c>
       <c r="K11" s="1">
-        <v>91097.9238</v>
+        <v>91095.6584</v>
       </c>
       <c r="L11" s="1">
-        <v>10.2256</v>
+        <v>10.2465</v>
       </c>
       <c r="M11" s="1">
         <v>0.1</v>
       </c>
       <c r="N11" s="1">
-        <v>715.3013</v>
+        <v>713.8232</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9284.698700000001</v>
+        <v>-9286.176799999999</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0132</v>
+        <v>-0.0136</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>10.4938</v>
       </c>
       <c r="C12" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D12" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E12" s="1">
-        <v>9882.6188</v>
+        <v>9862.319299999999</v>
       </c>
       <c r="F12" s="1">
-        <v>1021.1078</v>
+        <v>1018.9279</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>103706.2252</v>
+        <v>103286.0981</v>
       </c>
       <c r="I12" s="1">
-        <v>715.3013</v>
+        <v>713.8232</v>
       </c>
       <c r="J12" s="1">
-        <v>104421.5265</v>
+        <v>103999.9213</v>
       </c>
       <c r="K12" s="1">
-        <v>101097.9238</v>
+        <v>101095.6584</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2299</v>
+        <v>10.2507</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10715.3013</v>
+        <v>-10713.8232</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.029</v>
+        <v>0.0286</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>10.5481</v>
       </c>
       <c r="C13" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D13" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E13" s="1">
-        <v>10903.7266</v>
+        <v>10881.2473</v>
       </c>
       <c r="F13" s="1">
-        <v>948.038</v>
+        <v>946.1454</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>115013.5989</v>
+        <v>114546.8899</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>115013.5989</v>
+        <v>114546.8899</v>
       </c>
       <c r="K13" s="1">
-        <v>111813.2251</v>
+        <v>111809.4816</v>
       </c>
       <c r="L13" s="1">
-        <v>10.2546</v>
+        <v>10.2754</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3611,7 +3611,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0052</v>
+        <v>0.0048</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,49 +3622,49 @@
         <v>10.3262</v>
       </c>
       <c r="C14" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D14" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E14" s="1">
-        <v>11851.7647</v>
+        <v>11827.3927</v>
       </c>
       <c r="F14" s="1">
-        <v>-11851.7647</v>
+        <v>-11827.3927</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>122383.6923</v>
+        <v>121887.1951</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>122383.6923</v>
+        <v>121887.1951</v>
       </c>
       <c r="K14" s="1">
-        <v>121813.2251</v>
+        <v>121809.4816</v>
       </c>
       <c r="L14" s="1">
-        <v>10.2781</v>
+        <v>10.2989</v>
       </c>
       <c r="M14" s="1">
         <v>0.25</v>
       </c>
       <c r="N14" s="1">
-        <v>2453.3385</v>
+        <v>2448.2806</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124837.0308</v>
+        <v>124335.4758</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.021</v>
+        <v>-0.0214</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D3" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="F3" s="1">
-        <v>1003.2606</v>
+        <v>1001.2516</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10083.8678</v>
+        <v>10043.617</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10083.8678</v>
+        <v>10043.617</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.008399999999999999</v>
+        <v>0.0044</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>10.4908</v>
       </c>
       <c r="C4" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D4" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E4" s="1">
-        <v>2014.9353</v>
+        <v>2010.9038</v>
       </c>
       <c r="F4" s="1">
-        <v>887.8223</v>
+        <v>897.6761</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>21138.2835</v>
+        <v>21053.761</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21138.2835</v>
+        <v>21053.761</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>9.9259</v>
+        <v>9.9458</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3899,10 +3899,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9313.9665</v>
+        <v>-9436.1914</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0525</v>
+        <v>0.0504</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>10.6308</v>
       </c>
       <c r="C5" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D5" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E5" s="1">
-        <v>2902.7577</v>
+        <v>2908.5799</v>
       </c>
       <c r="F5" s="1">
-        <v>945.4037</v>
+        <v>947.3071</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>30858.6361</v>
+        <v>30858.5786</v>
       </c>
       <c r="I5" s="1">
-        <v>686.0335</v>
+        <v>563.8086</v>
       </c>
       <c r="J5" s="1">
-        <v>31544.6696</v>
+        <v>31422.3872</v>
       </c>
       <c r="K5" s="1">
-        <v>29313.9665</v>
+        <v>29436.1914</v>
       </c>
       <c r="L5" s="1">
-        <v>10.0987</v>
+        <v>10.1205</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10050.3977</v>
+        <v>-10090.8104</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0131</v>
+        <v>0.0119</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>10.3176</v>
       </c>
       <c r="C6" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D6" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E6" s="1">
-        <v>3848.1614</v>
+        <v>3855.8871</v>
       </c>
       <c r="F6" s="1">
-        <v>1030.8246</v>
+        <v>1013.029</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>39703.7896</v>
+        <v>39704.069</v>
       </c>
       <c r="I6" s="1">
-        <v>635.6358</v>
+        <v>472.9982</v>
       </c>
       <c r="J6" s="1">
-        <v>40339.4254</v>
+        <v>40177.0673</v>
       </c>
       <c r="K6" s="1">
-        <v>39364.3642</v>
+        <v>39527.0018</v>
       </c>
       <c r="L6" s="1">
-        <v>10.2294</v>
+        <v>10.2511</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10635.6358</v>
+        <v>-10472.9982</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.029</v>
+        <v>-0.0301</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>10.2392</v>
       </c>
       <c r="C7" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D7" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E7" s="1">
-        <v>4878.9859</v>
+        <v>4868.9161</v>
       </c>
       <c r="F7" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>49956.9129</v>
+        <v>49753.993</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>49956.9129</v>
+        <v>49753.993</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.248</v>
+        <v>10.2692</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0076</v>
+        <v>-0.008399999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,49 +4072,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D8" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>5855.6247</v>
+        <v>5843.6035</v>
       </c>
       <c r="F8" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>58432.6938</v>
+        <v>58196.447</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>58432.6938</v>
+        <v>58196.447</v>
       </c>
       <c r="K8" s="1">
         <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>10.2466</v>
+        <v>10.2676</v>
       </c>
       <c r="M8" s="1">
         <v>0.25</v>
       </c>
       <c r="N8" s="1">
-        <v>1097.7718</v>
+        <v>1095.5061</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8902.2282</v>
+        <v>-8904.493899999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0254</v>
+        <v>-0.0261</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>10.1873</v>
       </c>
       <c r="C9" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D9" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E9" s="1">
-        <v>6857.7292</v>
+        <v>6843.7035</v>
       </c>
       <c r="F9" s="1">
-        <v>1089.3732</v>
+        <v>1086.9742</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>69861.7444</v>
+        <v>69579.249</v>
       </c>
       <c r="I9" s="1">
-        <v>1097.7718</v>
+        <v>1095.5061</v>
       </c>
       <c r="J9" s="1">
-        <v>70959.5162</v>
+        <v>70674.75509999999</v>
       </c>
       <c r="K9" s="1">
         <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>10.2075</v>
+        <v>10.2284</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11097.7718</v>
+        <v>-11095.5061</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0369</v>
+        <v>0.0363</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>10.4058</v>
       </c>
       <c r="C10" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D10" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E10" s="1">
-        <v>7947.1024</v>
+        <v>7930.6776</v>
       </c>
       <c r="F10" s="1">
-        <v>961.0025000000001</v>
+        <v>959.0762</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>82695.9581</v>
+        <v>82360.0873</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>82695.9581</v>
+        <v>82360.0873</v>
       </c>
       <c r="K10" s="1">
-        <v>81097.7718</v>
+        <v>81095.5061</v>
       </c>
       <c r="L10" s="1">
-        <v>10.2047</v>
+        <v>10.2255</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4220,7 +4220,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0214</v>
+        <v>0.0209</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,49 +4231,49 @@
         <v>10.2688</v>
       </c>
       <c r="C11" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D11" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E11" s="1">
-        <v>8908.1049</v>
+        <v>8889.7539</v>
       </c>
       <c r="F11" s="1">
-        <v>973.8236000000001</v>
+        <v>971.874</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>91475.5477</v>
+        <v>91104.8645</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>91475.5477</v>
+        <v>91104.8645</v>
       </c>
       <c r="K11" s="1">
-        <v>91097.7718</v>
+        <v>91095.5061</v>
       </c>
       <c r="L11" s="1">
-        <v>10.2264</v>
+        <v>10.2472</v>
       </c>
       <c r="M11" s="1">
         <v>0.1</v>
       </c>
       <c r="N11" s="1">
-        <v>715.2392</v>
+        <v>713.761</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9284.7608</v>
+        <v>-9286.239</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0132</v>
+        <v>-0.0136</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>10.4938</v>
       </c>
       <c r="C12" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D12" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E12" s="1">
-        <v>9881.9285</v>
+        <v>9861.6278</v>
       </c>
       <c r="F12" s="1">
-        <v>1021.1019</v>
+        <v>1018.922</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>103698.9816</v>
+        <v>103278.8559</v>
       </c>
       <c r="I12" s="1">
-        <v>715.2392</v>
+        <v>713.761</v>
       </c>
       <c r="J12" s="1">
-        <v>104414.2208</v>
+        <v>103992.6169</v>
       </c>
       <c r="K12" s="1">
-        <v>101097.7718</v>
+        <v>101095.5061</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2306</v>
+        <v>10.2514</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10715.2392</v>
+        <v>-10713.761</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.029</v>
+        <v>0.0286</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>10.5481</v>
       </c>
       <c r="C13" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D13" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E13" s="1">
-        <v>10903.0304</v>
+        <v>10880.5498</v>
       </c>
       <c r="F13" s="1">
-        <v>948.038</v>
+        <v>946.1454</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>115006.2554</v>
+        <v>114539.548</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>115006.2554</v>
+        <v>114539.548</v>
       </c>
       <c r="K13" s="1">
-        <v>111813.0111</v>
+        <v>111809.2671</v>
       </c>
       <c r="L13" s="1">
-        <v>10.2552</v>
+        <v>10.2761</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0052</v>
+        <v>0.0048</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,49 +4390,49 @@
         <v>10.3262</v>
       </c>
       <c r="C14" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D14" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E14" s="1">
-        <v>11851.0685</v>
+        <v>11826.6952</v>
       </c>
       <c r="F14" s="1">
-        <v>-11851.0685</v>
+        <v>-11826.6952</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>122376.5033</v>
+        <v>121880.0077</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>122376.5033</v>
+        <v>121880.0077</v>
       </c>
       <c r="K14" s="1">
-        <v>121813.0111</v>
+        <v>121809.2671</v>
       </c>
       <c r="L14" s="1">
-        <v>10.2787</v>
+        <v>10.2995</v>
       </c>
       <c r="M14" s="1">
         <v>0.25</v>
       </c>
       <c r="N14" s="1">
-        <v>2453.1818</v>
+        <v>2448.1237</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124829.6851</v>
+        <v>124328.1314</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.021</v>
+        <v>-0.0214</v>
       </c>
     </row>
   </sheetData>
@@ -4452,7 +4452,7 @@
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>10.2813</v>
+        <v>10.3019</v>
       </c>
       <c r="D3" s="1">
-        <v>10.2693</v>
+        <v>10.2899</v>
       </c>
       <c r="E3" s="1">
-        <v>10.2737</v>
+        <v>10.2957</v>
       </c>
       <c r="F3" s="1">
-        <v>10.2781</v>
+        <v>10.2989</v>
       </c>
       <c r="G3" s="1">
-        <v>10.2787</v>
+        <v>10.2995</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.047</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0697</v>
+        <v>0.0573</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0707</v>
+        <v>0.0588</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0708</v>
+        <v>0.0583</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0704</v>
+        <v>0.0579</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0702</v>
+        <v>0.0577</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.0801</v>
       </c>
       <c r="C5" s="3">
-        <v>0.0863</v>
+        <v>0.0856</v>
       </c>
       <c r="D5" s="3">
-        <v>0.0853</v>
+        <v>0.0848</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0859</v>
+        <v>0.0852</v>
       </c>
       <c r="F5" s="3">
-        <v>0.0861</v>
+        <v>0.0854</v>
       </c>
       <c r="G5" s="3">
-        <v>0.0862</v>
+        <v>0.08550000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>0.3327</v>
       </c>
       <c r="C6" s="4">
-        <v>0.5721000000000001</v>
+        <v>0.4318</v>
       </c>
       <c r="D6" s="4">
-        <v>0.5909</v>
+        <v>0.4536</v>
       </c>
       <c r="E6" s="4">
-        <v>0.5871</v>
+        <v>0.4454</v>
       </c>
       <c r="F6" s="4">
-        <v>0.5809</v>
+        <v>0.4396</v>
       </c>
       <c r="G6" s="4">
-        <v>0.5785</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.0747</v>
+        <v>0.0669</v>
       </c>
       <c r="D7" s="3">
-        <v>0.0766</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0762</v>
+        <v>0.06809999999999999</v>
       </c>
       <c r="F7" s="3">
-        <v>0.0756</v>
+        <v>0.0677</v>
       </c>
       <c r="G7" s="3">
-        <v>0.07539999999999999</v>
+        <v>0.0675</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>4245.0321</v>
+        <v>4236.4843</v>
       </c>
       <c r="D8" s="1">
-        <v>4155.6677</v>
+        <v>4163.9965</v>
       </c>
       <c r="E8" s="1">
-        <v>4231.7752</v>
+        <v>4232.936</v>
       </c>
       <c r="F8" s="1">
-        <v>4266.5636</v>
+        <v>4257.7622</v>
       </c>
       <c r="G8" s="1">
-        <v>4266.1929</v>
+        <v>4257.3908</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P87_KFSDIV.xlsx
+++ b/output/1Y_P87_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.884600000000001</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.967499999999999</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.4908</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.6308</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.3176</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.2392</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.978999999999999</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.1873</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.4058</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.2688</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.4938</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.5481</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.3262</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.884600000000001</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.967499999999999</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.4908</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.6308</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.3176</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.2392</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.978999999999999</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.1873</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.4058</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.2688</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.4938</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.5481</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.3262</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.884600000000001</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.967499999999999</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.4908</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.6308</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.3176</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.2392</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.978999999999999</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.1873</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.4058</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.2688</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.4938</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.5481</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.3262</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.884600000000001</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.967499999999999</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.4908</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.6308</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.3176</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.2392</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.978999999999999</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.1873</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.4058</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.2688</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.4938</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.5481</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.3262</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.884600000000001</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.967499999999999</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.4908</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.6308</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.3176</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.2392</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.978999999999999</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.1873</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.4058</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.2688</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.4938</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.5481</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.3262</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>4784.551</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0003</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.0424</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.0133</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.0006</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.0006</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
